--- a/PCB/BOM/ElectricalBOM.xlsx
+++ b/PCB/BOM/ElectricalBOM.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madis\Desktop\University\Github\METR4900_Growroom\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madis\Desktop\University\2020 SEM2\METR4900_Growroom\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8A83F-BB24-47A9-A594-19DF7DC1197D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409FA86-AD6D-4D89-9F30-34BA6944F84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1747816A-5ACD-4C78-86F6-36E2492B0F64}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="116">
   <si>
     <t>The Monarch Receiver PCB</t>
   </si>
@@ -801,7 +800,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="J24" activeCellId="1" sqref="C40 J24"/>
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1378,7 +1377,10 @@
       <c r="I19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <f>SUM(G3:G24)</f>
+        <v>119.134</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
@@ -1577,7 +1579,10 @@
       <c r="I27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <f>SUM(G26:G48)</f>
+        <v>99.260999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
@@ -2177,17 +2182,18 @@
         <v>103</v>
       </c>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G48" s="2">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G50" s="2">
-        <f>SUM(G26:G47,G3:G24)</f>
-        <v>198.40499999999997</v>
+        <f>SUM(G26:G48,G3:G24)</f>
+        <v>218.39499999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:I25"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J24" r:id="rId1" xr:uid="{6C55141B-AE2D-4432-9087-3C88EA10EC4D}"/>
@@ -2195,307 +2201,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07058A13-E385-41A2-8866-DB9B4FB2DD16}">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>